--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4147.27876767856</v>
+        <v>4313.910514951853</v>
       </c>
       <c r="AB2" t="n">
-        <v>5674.489774964336</v>
+        <v>5902.482682857533</v>
       </c>
       <c r="AC2" t="n">
-        <v>5132.924435037946</v>
+        <v>5339.158019791862</v>
       </c>
       <c r="AD2" t="n">
-        <v>4147278.76767856</v>
+        <v>4313910.514951853</v>
       </c>
       <c r="AE2" t="n">
-        <v>5674489.774964336</v>
+        <v>5902482.682857533</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.429185073933704e-07</v>
+        <v>1.086885635922435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.51692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5132924.435037945</v>
+        <v>5339158.019791862</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1953.476173505248</v>
+        <v>2067.864818046494</v>
       </c>
       <c r="AB3" t="n">
-        <v>2672.832281876285</v>
+        <v>2829.343871808454</v>
       </c>
       <c r="AC3" t="n">
-        <v>2417.74092023768</v>
+        <v>2559.315263692118</v>
       </c>
       <c r="AD3" t="n">
-        <v>1953476.173505249</v>
+        <v>2067864.818046494</v>
       </c>
       <c r="AE3" t="n">
-        <v>2672832.281876286</v>
+        <v>2829343.871808453</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.016289275773575e-06</v>
+        <v>1.718087445108294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.93706597222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2417740.92023768</v>
+        <v>2559315.263692118</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1583.97768144947</v>
+        <v>1677.537447090105</v>
       </c>
       <c r="AB4" t="n">
-        <v>2167.268143922576</v>
+        <v>2295.280742837644</v>
       </c>
       <c r="AC4" t="n">
-        <v>1960.427114046549</v>
+        <v>2076.222370187974</v>
       </c>
       <c r="AD4" t="n">
-        <v>1583977.68144947</v>
+        <v>1677537.447090105</v>
       </c>
       <c r="AE4" t="n">
-        <v>2167268.143922576</v>
+        <v>2295280.742837644</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.159606137354874e-06</v>
+        <v>1.960371710449702e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1960427.114046549</v>
+        <v>2076222.370187974</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1426.094515718718</v>
+        <v>1509.325138009344</v>
       </c>
       <c r="AB5" t="n">
-        <v>1951.245431256077</v>
+        <v>2065.125240550019</v>
       </c>
       <c r="AC5" t="n">
-        <v>1765.021305887159</v>
+        <v>1868.032586013403</v>
       </c>
       <c r="AD5" t="n">
-        <v>1426094.515718718</v>
+        <v>1509325.138009344</v>
       </c>
       <c r="AE5" t="n">
-        <v>1951245.431256077</v>
+        <v>2065125.240550019</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.235139258540066e-06</v>
+        <v>2.088064199479799e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.40407986111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1765021.305887159</v>
+        <v>1868032.586013403</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1327.283471093135</v>
+        <v>1410.599344729782</v>
       </c>
       <c r="AB6" t="n">
-        <v>1816.047800763725</v>
+        <v>1930.044254710316</v>
       </c>
       <c r="AC6" t="n">
-        <v>1642.726747497931</v>
+        <v>1745.843539874887</v>
       </c>
       <c r="AD6" t="n">
-        <v>1327283.471093135</v>
+        <v>1410599.344729782</v>
       </c>
       <c r="AE6" t="n">
-        <v>1816047.800763725</v>
+        <v>1930044.254710316</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.283596229980258e-06</v>
+        <v>2.169983113950282e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.78559027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1642726.747497931</v>
+        <v>1745843.539874887</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1268.468275410074</v>
+        <v>1351.613556846129</v>
       </c>
       <c r="AB7" t="n">
-        <v>1735.574255286855</v>
+        <v>1849.337297458599</v>
       </c>
       <c r="AC7" t="n">
-        <v>1569.933484256043</v>
+        <v>1672.839141350348</v>
       </c>
       <c r="AD7" t="n">
-        <v>1268468.275410074</v>
+        <v>1351613.556846129</v>
       </c>
       <c r="AE7" t="n">
-        <v>1735574.255286855</v>
+        <v>1849337.297458599</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.315714145539846e-06</v>
+        <v>2.224280043772722e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.39930555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1569933.484256043</v>
+        <v>1672839.141350348</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1221.430521858305</v>
+        <v>1294.332000798922</v>
       </c>
       <c r="AB8" t="n">
-        <v>1671.215125718095</v>
+        <v>1770.96214539091</v>
       </c>
       <c r="AC8" t="n">
-        <v>1511.716699684719</v>
+        <v>1601.944003795783</v>
       </c>
       <c r="AD8" t="n">
-        <v>1221430.521858305</v>
+        <v>1294332.000798922</v>
       </c>
       <c r="AE8" t="n">
-        <v>1671215.125718095</v>
+        <v>1770962.14539091</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.340642876511967e-06</v>
+        <v>2.266423300350022e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.11284722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1511716.699684719</v>
+        <v>1601944.003795783</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1154.206786615549</v>
+        <v>1237.437319397624</v>
       </c>
       <c r="AB9" t="n">
-        <v>1579.236645457066</v>
+        <v>1693.11633228146</v>
       </c>
       <c r="AC9" t="n">
-        <v>1428.516516487196</v>
+        <v>1531.527685832214</v>
       </c>
       <c r="AD9" t="n">
-        <v>1154206.786615549</v>
+        <v>1237437.319397624</v>
       </c>
       <c r="AE9" t="n">
-        <v>1579236.645457066</v>
+        <v>1693116.33228146</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.370053177097055e-06</v>
+        <v>2.3161428727165e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.78949652777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1428516.516487196</v>
+        <v>1531527.685832214</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1143.855694498351</v>
+        <v>1227.086227280426</v>
       </c>
       <c r="AB10" t="n">
-        <v>1565.073824564361</v>
+        <v>1678.953511388754</v>
       </c>
       <c r="AC10" t="n">
-        <v>1415.705375342846</v>
+        <v>1518.716544687864</v>
       </c>
       <c r="AD10" t="n">
-        <v>1143855.694498351</v>
+        <v>1227086.227280426</v>
       </c>
       <c r="AE10" t="n">
-        <v>1565073.824564361</v>
+        <v>1678953.511388754</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.369773078996244e-06</v>
+        <v>2.315669352979677e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1415705.375342846</v>
+        <v>1518716.544687864</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1111.822182989783</v>
+        <v>1195.052715771858</v>
       </c>
       <c r="AB11" t="n">
-        <v>1521.24416089955</v>
+        <v>1635.123847723944</v>
       </c>
       <c r="AC11" t="n">
-        <v>1376.058753262886</v>
+        <v>1479.069922607904</v>
       </c>
       <c r="AD11" t="n">
-        <v>1111822.182989783</v>
+        <v>1195052.715771858</v>
       </c>
       <c r="AE11" t="n">
-        <v>1521244.16089955</v>
+        <v>1635123.847723944</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.383404519902348e-06</v>
+        <v>2.338713980171758e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.64626736111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1376058.753262886</v>
+        <v>1479069.922607904</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1082.926803223198</v>
+        <v>1166.157336005273</v>
       </c>
       <c r="AB12" t="n">
-        <v>1481.708227528723</v>
+        <v>1595.587914353116</v>
       </c>
       <c r="AC12" t="n">
-        <v>1340.296073883939</v>
+        <v>1443.307243228957</v>
       </c>
       <c r="AD12" t="n">
-        <v>1082926.803223198</v>
+        <v>1166157.336005273</v>
       </c>
       <c r="AE12" t="n">
-        <v>1481708.227528722</v>
+        <v>1595587.914353116</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.393207953430711e-06</v>
+        <v>2.355287170960584e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1340296.073883939</v>
+        <v>1443307.243228957</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1055.524920676337</v>
+        <v>1128.341058762382</v>
       </c>
       <c r="AB13" t="n">
-        <v>1444.215762942368</v>
+        <v>1543.846015492987</v>
       </c>
       <c r="AC13" t="n">
-        <v>1306.381837496702</v>
+        <v>1396.503518575827</v>
       </c>
       <c r="AD13" t="n">
-        <v>1055524.920676337</v>
+        <v>1128341.058762382</v>
       </c>
       <c r="AE13" t="n">
-        <v>1444215.762942368</v>
+        <v>1543846.015492987</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.401050700253401e-06</v>
+        <v>2.368545723591645e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.46180555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1306381.837496702</v>
+        <v>1396503.518575827</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1042.047729170777</v>
+        <v>1114.863867256822</v>
       </c>
       <c r="AB14" t="n">
-        <v>1425.775674952735</v>
+        <v>1525.405927503353</v>
       </c>
       <c r="AC14" t="n">
-        <v>1289.701645623973</v>
+        <v>1379.823326703097</v>
       </c>
       <c r="AD14" t="n">
-        <v>1042047.729170777</v>
+        <v>1114863.867256822</v>
       </c>
       <c r="AE14" t="n">
-        <v>1425775.674952734</v>
+        <v>1525405.927503353</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.405532269866366e-06</v>
+        <v>2.376122039380823e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.41623263888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1289701.645623973</v>
+        <v>1379823.326703097</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1046.735085377135</v>
+        <v>1119.551223463181</v>
       </c>
       <c r="AB15" t="n">
-        <v>1432.189122505835</v>
+        <v>1531.819375056454</v>
       </c>
       <c r="AC15" t="n">
-        <v>1295.503002743936</v>
+        <v>1385.624683823061</v>
       </c>
       <c r="AD15" t="n">
-        <v>1046735.085377135</v>
+        <v>1119551.223463181</v>
       </c>
       <c r="AE15" t="n">
-        <v>1432189.122505835</v>
+        <v>1531819.375056454</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.404878707631142e-06</v>
+        <v>2.375017159994901e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.42274305555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>1295503.002743936</v>
+        <v>1385624.683823061</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2863.221246587617</v>
+        <v>3004.403855547087</v>
       </c>
       <c r="AB2" t="n">
-        <v>3917.585625987836</v>
+        <v>4110.757900103314</v>
       </c>
       <c r="AC2" t="n">
-        <v>3543.696752209368</v>
+        <v>3718.432935602246</v>
       </c>
       <c r="AD2" t="n">
-        <v>2863221.246587617</v>
+        <v>3004403.855547087</v>
       </c>
       <c r="AE2" t="n">
-        <v>3917585.625987836</v>
+        <v>4110757.900103313</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.900722979483123e-07</v>
+        <v>1.368240100848391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.52777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3543696.752209368</v>
+        <v>3718432.935602246</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1570.105788389845</v>
+        <v>1660.835647638565</v>
       </c>
       <c r="AB3" t="n">
-        <v>2148.288007853666</v>
+        <v>2272.428603996658</v>
       </c>
       <c r="AC3" t="n">
-        <v>1943.258415525268</v>
+        <v>2055.551207404793</v>
       </c>
       <c r="AD3" t="n">
-        <v>1570105.788389845</v>
+        <v>1660835.647638565</v>
       </c>
       <c r="AE3" t="n">
-        <v>2148288.007853666</v>
+        <v>2272428.603996658</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135946246475562e-06</v>
+        <v>1.967221494630554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.45269097222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1943258.415525268</v>
+        <v>2055551.207404793</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1308.258105133581</v>
+        <v>1398.987874873751</v>
       </c>
       <c r="AB4" t="n">
-        <v>1790.016455717955</v>
+        <v>1914.156929391398</v>
       </c>
       <c r="AC4" t="n">
-        <v>1619.179797488106</v>
+        <v>1731.472478586405</v>
       </c>
       <c r="AD4" t="n">
-        <v>1308258.105133581</v>
+        <v>1398987.874873751</v>
       </c>
       <c r="AE4" t="n">
-        <v>1790016.455717955</v>
+        <v>1914156.929391398</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.264695191850269e-06</v>
+        <v>2.190187760453403e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.57335069444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1619179.797488106</v>
+        <v>1731472.478586406</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1184.96828512685</v>
+        <v>1265.692827877731</v>
       </c>
       <c r="AB5" t="n">
-        <v>1621.325884821762</v>
+        <v>1731.776765528999</v>
       </c>
       <c r="AC5" t="n">
-        <v>1466.588817919544</v>
+        <v>1566.498421590866</v>
       </c>
       <c r="AD5" t="n">
-        <v>1184968.28512685</v>
+        <v>1265692.827877731</v>
       </c>
       <c r="AE5" t="n">
-        <v>1621325.884821762</v>
+        <v>1731776.765528999</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.333174563396156e-06</v>
+        <v>2.308779720294663e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.72265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1466588.817919544</v>
+        <v>1566498.421590866</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1118.74105048301</v>
+        <v>1199.295001033299</v>
       </c>
       <c r="AB6" t="n">
-        <v>1530.710860642675</v>
+        <v>1640.928329575064</v>
       </c>
       <c r="AC6" t="n">
-        <v>1384.621964469123</v>
+        <v>1484.320432857794</v>
       </c>
       <c r="AD6" t="n">
-        <v>1118741.05048301</v>
+        <v>1199295.001033299</v>
       </c>
       <c r="AE6" t="n">
-        <v>1530710.860642675</v>
+        <v>1640928.329575064</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.373161107571046e-06</v>
+        <v>2.378028057917063e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.26475694444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1384621.964469123</v>
+        <v>1484320.432857794</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1054.511732068458</v>
+        <v>1135.150933964768</v>
       </c>
       <c r="AB7" t="n">
-        <v>1442.829473590342</v>
+        <v>1553.163587175381</v>
       </c>
       <c r="AC7" t="n">
-        <v>1305.127853654764</v>
+        <v>1404.931834294147</v>
       </c>
       <c r="AD7" t="n">
-        <v>1054511.732068458</v>
+        <v>1135150.933964768</v>
       </c>
       <c r="AE7" t="n">
-        <v>1442829.473590342</v>
+        <v>1553163.587175381</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.403102722774466e-06</v>
+        <v>2.429880677875866e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.93923611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1305127.853654764</v>
+        <v>1404931.834294147</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1029.125235847441</v>
+        <v>1109.76443774375</v>
       </c>
       <c r="AB8" t="n">
-        <v>1408.094549487576</v>
+        <v>1518.428663072614</v>
       </c>
       <c r="AC8" t="n">
-        <v>1273.707981957594</v>
+        <v>1373.511962596977</v>
       </c>
       <c r="AD8" t="n">
-        <v>1029125.235847441</v>
+        <v>1109764.43774375</v>
       </c>
       <c r="AE8" t="n">
-        <v>1408094.549487576</v>
+        <v>1518428.663072614</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.410829591214059e-06</v>
+        <v>2.443261999155557e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.85677083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1273707.981957593</v>
+        <v>1373511.962596977</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>973.747346214144</v>
+        <v>1054.386548110453</v>
       </c>
       <c r="AB9" t="n">
-        <v>1332.324077791234</v>
+        <v>1442.658191376273</v>
       </c>
       <c r="AC9" t="n">
-        <v>1205.168937735426</v>
+        <v>1304.97291837481</v>
       </c>
       <c r="AD9" t="n">
-        <v>973747.346214144</v>
+        <v>1054386.548110453</v>
       </c>
       <c r="AE9" t="n">
-        <v>1332324.077791234</v>
+        <v>1442658.191376274</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.437680459041642e-06</v>
+        <v>2.489762090602482e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.57899305555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1205168.937735426</v>
+        <v>1304972.918374809</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>944.7720797814129</v>
+        <v>1015.320803342413</v>
       </c>
       <c r="AB10" t="n">
-        <v>1292.678839959435</v>
+        <v>1389.206715925617</v>
       </c>
       <c r="AC10" t="n">
-        <v>1169.307385759852</v>
+        <v>1256.622776721547</v>
       </c>
       <c r="AD10" t="n">
-        <v>944772.079781413</v>
+        <v>1015320.803342413</v>
       </c>
       <c r="AE10" t="n">
-        <v>1292678.839959435</v>
+        <v>1389206.715925617</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.447918559724101e-06</v>
+        <v>2.507492341298073e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.47699652777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1169307.385759852</v>
+        <v>1256622.776721547</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>946.1422729209597</v>
+        <v>1016.69099648196</v>
       </c>
       <c r="AB11" t="n">
-        <v>1294.553598661617</v>
+        <v>1391.0814746278</v>
       </c>
       <c r="AC11" t="n">
-        <v>1171.003220122739</v>
+        <v>1258.318611084434</v>
       </c>
       <c r="AD11" t="n">
-        <v>946142.2729209597</v>
+        <v>1016690.99648196</v>
       </c>
       <c r="AE11" t="n">
-        <v>1294553.598661617</v>
+        <v>1391081.4746278</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.449367347556525e-06</v>
+        <v>2.510001339038015e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.46180555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>1171003.220122739</v>
+        <v>1258318.611084434</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1126.953344988387</v>
+        <v>1218.02166026097</v>
       </c>
       <c r="AB2" t="n">
-        <v>1541.947284285796</v>
+        <v>1666.550970892261</v>
       </c>
       <c r="AC2" t="n">
-        <v>1394.785999610165</v>
+        <v>1507.497685249281</v>
       </c>
       <c r="AD2" t="n">
-        <v>1126953.344988388</v>
+        <v>1218021.66026097</v>
       </c>
       <c r="AE2" t="n">
-        <v>1541947.284285796</v>
+        <v>1666550.970892261</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.259359572513147e-06</v>
+        <v>2.382979312428089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.57204861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1394785.999610165</v>
+        <v>1507497.685249281</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>799.1968104630758</v>
+        <v>872.1197353647987</v>
       </c>
       <c r="AB3" t="n">
-        <v>1093.496334150469</v>
+        <v>1193.272697133399</v>
       </c>
       <c r="AC3" t="n">
-        <v>989.1345787508911</v>
+        <v>1079.388425687735</v>
       </c>
       <c r="AD3" t="n">
-        <v>799196.8104630759</v>
+        <v>872119.7353647987</v>
       </c>
       <c r="AE3" t="n">
-        <v>1093496.334150468</v>
+        <v>1193272.697133399</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.503148306190916e-06</v>
+        <v>2.844280057375658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.55989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>989134.5787508911</v>
+        <v>1079388.425687735</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>714.7466011010839</v>
+        <v>787.5841851482353</v>
       </c>
       <c r="AB4" t="n">
-        <v>977.9478320210995</v>
+        <v>1077.607427881832</v>
       </c>
       <c r="AC4" t="n">
-        <v>884.613863491408</v>
+        <v>974.7620873963133</v>
       </c>
       <c r="AD4" t="n">
-        <v>714746.6011010839</v>
+        <v>787584.1851482353</v>
       </c>
       <c r="AE4" t="n">
-        <v>977947.8320210995</v>
+        <v>1077607.427881832</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.56382605024953e-06</v>
+        <v>2.959095406361282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.95659722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>884613.8634914079</v>
+        <v>974762.0873963133</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>719.7628792425774</v>
+        <v>792.6004632897287</v>
       </c>
       <c r="AB5" t="n">
-        <v>984.8113250768638</v>
+        <v>1084.470920937596</v>
       </c>
       <c r="AC5" t="n">
-        <v>890.822314402903</v>
+        <v>980.9705383078082</v>
       </c>
       <c r="AD5" t="n">
-        <v>719762.8792425774</v>
+        <v>792600.4632897287</v>
       </c>
       <c r="AE5" t="n">
-        <v>984811.3250768638</v>
+        <v>1084470.920937596</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.56382605024953e-06</v>
+        <v>2.959095406361282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.95659722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>890822.314402903</v>
+        <v>980970.5383078082</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1596.08964562084</v>
+        <v>1700.467243334966</v>
       </c>
       <c r="AB2" t="n">
-        <v>2183.840267643992</v>
+        <v>2326.654301651078</v>
       </c>
       <c r="AC2" t="n">
-        <v>1975.417617539115</v>
+        <v>2104.60168058132</v>
       </c>
       <c r="AD2" t="n">
-        <v>1596089.64562084</v>
+        <v>1700467.243334966</v>
       </c>
       <c r="AE2" t="n">
-        <v>2183840.267643992</v>
+        <v>2326654.301651078</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.070752015539338e-06</v>
+        <v>1.950677631979185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1975417.617539115</v>
+        <v>2104601.68058132</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1056.398302814337</v>
+        <v>1132.286097700096</v>
       </c>
       <c r="AB3" t="n">
-        <v>1445.41076291448</v>
+        <v>1549.243791810401</v>
       </c>
       <c r="AC3" t="n">
-        <v>1307.462788348668</v>
+        <v>1401.386138697334</v>
       </c>
       <c r="AD3" t="n">
-        <v>1056398.302814337</v>
+        <v>1132286.097700096</v>
       </c>
       <c r="AE3" t="n">
-        <v>1445410.76291448</v>
+        <v>1549243.791810401</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.356560834708817e-06</v>
+        <v>2.471359230038531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.49522569444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1307462.788348668</v>
+        <v>1401386.138697334</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>910.6306438538828</v>
+        <v>986.43309788507</v>
       </c>
       <c r="AB4" t="n">
-        <v>1245.965021109538</v>
+        <v>1349.68128288326</v>
       </c>
       <c r="AC4" t="n">
-        <v>1127.051868217733</v>
+        <v>1220.869595534459</v>
       </c>
       <c r="AD4" t="n">
-        <v>910630.6438538828</v>
+        <v>986433.09788507</v>
       </c>
       <c r="AE4" t="n">
-        <v>1245965.021109538</v>
+        <v>1349681.28288326</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.458738518618252e-06</v>
+        <v>2.65750477970549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.33854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1127051.868217733</v>
+        <v>1220869.595534459</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>819.6406841928869</v>
+        <v>895.5283895700949</v>
       </c>
       <c r="AB5" t="n">
-        <v>1121.46854410765</v>
+        <v>1225.301450534023</v>
       </c>
       <c r="AC5" t="n">
-        <v>1014.437160249003</v>
+        <v>1108.360399816442</v>
       </c>
       <c r="AD5" t="n">
-        <v>819640.6841928868</v>
+        <v>895528.3895700949</v>
       </c>
       <c r="AE5" t="n">
-        <v>1121468.54410765</v>
+        <v>1225301.450534023</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.513075188063532e-06</v>
+        <v>2.756494390880553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.78732638888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1014437.160249003</v>
+        <v>1108360.399816442</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>797.720694712994</v>
+        <v>873.6084000902021</v>
       </c>
       <c r="AB6" t="n">
-        <v>1091.476647459576</v>
+        <v>1195.309553885948</v>
       </c>
       <c r="AC6" t="n">
-        <v>987.3076481231292</v>
+        <v>1081.230887690568</v>
       </c>
       <c r="AD6" t="n">
-        <v>797720.694712994</v>
+        <v>873608.4000902021</v>
       </c>
       <c r="AE6" t="n">
-        <v>1091476.647459576</v>
+        <v>1195309.553885948</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524210596602603e-06</v>
+        <v>2.776780686908839e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.67881944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>987307.6481231292</v>
+        <v>1081230.887690568</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>839.2693632866453</v>
+        <v>909.6906525317352</v>
       </c>
       <c r="AB2" t="n">
-        <v>1148.325368799937</v>
+        <v>1244.678883513085</v>
       </c>
       <c r="AC2" t="n">
-        <v>1038.730807286447</v>
+        <v>1125.88847778838</v>
       </c>
       <c r="AD2" t="n">
-        <v>839269.3632866454</v>
+        <v>909690.6525317351</v>
       </c>
       <c r="AE2" t="n">
-        <v>1148325.368799936</v>
+        <v>1244678.883513085</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.42189987591616e-06</v>
+        <v>2.786465619990674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1038730.807286447</v>
+        <v>1125888.47778838</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>662.4629027456421</v>
+        <v>732.7135102815884</v>
       </c>
       <c r="AB3" t="n">
-        <v>906.4109693372038</v>
+        <v>1002.530949805957</v>
       </c>
       <c r="AC3" t="n">
-        <v>819.9043785794454</v>
+        <v>906.8508030175008</v>
       </c>
       <c r="AD3" t="n">
-        <v>662462.902745642</v>
+        <v>732713.5102815883</v>
       </c>
       <c r="AE3" t="n">
-        <v>906410.9693372038</v>
+        <v>1002530.949805957</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583420896222152e-06</v>
+        <v>3.102994777642138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.34071180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>819904.3785794454</v>
+        <v>906850.8030175008</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3142.812923821</v>
+        <v>3285.272814681226</v>
       </c>
       <c r="AB2" t="n">
-        <v>4300.135293492832</v>
+        <v>4495.055201054623</v>
       </c>
       <c r="AC2" t="n">
-        <v>3889.736416359504</v>
+        <v>4066.053441515398</v>
       </c>
       <c r="AD2" t="n">
-        <v>3142812.923821</v>
+        <v>3285272.814681225</v>
       </c>
       <c r="AE2" t="n">
-        <v>4300135.293492832</v>
+        <v>4495055.201054623</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.504309364103022e-07</v>
+        <v>1.291102323462445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.68012152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3889736.416359504</v>
+        <v>4066053.441515398</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1658.324076470125</v>
+        <v>1759.995800515715</v>
       </c>
       <c r="AB3" t="n">
-        <v>2268.992161521299</v>
+        <v>2408.103899800372</v>
       </c>
       <c r="AC3" t="n">
-        <v>2052.442734176205</v>
+        <v>2178.277843398474</v>
       </c>
       <c r="AD3" t="n">
-        <v>1658324.076470125</v>
+        <v>1759995.800515715</v>
       </c>
       <c r="AE3" t="n">
-        <v>2268992.161521299</v>
+        <v>2408103.899800372</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.104588393644756e-06</v>
+        <v>1.90042357305569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.80642361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2052442.734176205</v>
+        <v>2178277.843398475</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1372.991122930446</v>
+        <v>1464.487140486019</v>
       </c>
       <c r="AB4" t="n">
-        <v>1878.587026486815</v>
+        <v>2003.775914225762</v>
       </c>
       <c r="AC4" t="n">
-        <v>1699.297317292365</v>
+        <v>1812.538353289214</v>
       </c>
       <c r="AD4" t="n">
-        <v>1372991.122930446</v>
+        <v>1464487.140486019</v>
       </c>
       <c r="AE4" t="n">
-        <v>1878587.026486815</v>
+        <v>2003775.914225762</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.237253862760149e-06</v>
+        <v>2.128672019524944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.79036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1699297.317292365</v>
+        <v>1812538.353289213</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1244.122488411379</v>
+        <v>1335.533165112381</v>
       </c>
       <c r="AB5" t="n">
-        <v>1702.263275454921</v>
+        <v>1827.33539607167</v>
       </c>
       <c r="AC5" t="n">
-        <v>1539.801657587015</v>
+        <v>1652.937070551925</v>
       </c>
       <c r="AD5" t="n">
-        <v>1244122.488411379</v>
+        <v>1335533.165112381</v>
       </c>
       <c r="AE5" t="n">
-        <v>1702263.275454921</v>
+        <v>1827335.39607167</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.306266707805025e-06</v>
+        <v>2.247407322486222e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1539801.657587015</v>
+        <v>1652937.070551925</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1170.357899801556</v>
+        <v>1251.592959521093</v>
       </c>
       <c r="AB6" t="n">
-        <v>1601.335311054987</v>
+        <v>1712.484703601157</v>
       </c>
       <c r="AC6" t="n">
-        <v>1448.506116456123</v>
+        <v>1549.047566976839</v>
       </c>
       <c r="AD6" t="n">
-        <v>1170357.899801556</v>
+        <v>1251592.959521093</v>
       </c>
       <c r="AE6" t="n">
-        <v>1601335.311054987</v>
+        <v>1712484.703601157</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.349914221453379e-06</v>
+        <v>2.322502049463119e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.38845486111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1448506.116456123</v>
+        <v>1549047.566976839</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1116.545069758598</v>
+        <v>1187.775104697261</v>
       </c>
       <c r="AB7" t="n">
-        <v>1527.706222935702</v>
+        <v>1625.16629918614</v>
       </c>
       <c r="AC7" t="n">
-        <v>1381.904085167868</v>
+        <v>1470.062708527041</v>
       </c>
       <c r="AD7" t="n">
-        <v>1116545.069758598</v>
+        <v>1187775.104697261</v>
       </c>
       <c r="AE7" t="n">
-        <v>1527706.222935702</v>
+        <v>1625166.29918614</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.37968259150741e-06</v>
+        <v>2.373717970712714e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.05425347222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1381904.085167868</v>
+        <v>1470062.708527041</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1048.784879823149</v>
+        <v>1130.105190888706</v>
       </c>
       <c r="AB8" t="n">
-        <v>1434.99374169742</v>
+        <v>1546.259778896239</v>
       </c>
       <c r="AC8" t="n">
-        <v>1298.039953016183</v>
+        <v>1398.686915787612</v>
       </c>
       <c r="AD8" t="n">
-        <v>1048784.879823149</v>
+        <v>1130105.190888706</v>
       </c>
       <c r="AE8" t="n">
-        <v>1434993.74169742</v>
+        <v>1546259.778896239</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.411556762658511e-06</v>
+        <v>2.428556883176106e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.71571180555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1298039.953016183</v>
+        <v>1398686.915787612</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1027.723925370333</v>
+        <v>1109.04423643589</v>
       </c>
       <c r="AB9" t="n">
-        <v>1406.177214671342</v>
+        <v>1517.443251870162</v>
       </c>
       <c r="AC9" t="n">
-        <v>1271.973634885224</v>
+        <v>1372.620597656653</v>
       </c>
       <c r="AD9" t="n">
-        <v>1027723.925370333</v>
+        <v>1109044.23643589</v>
       </c>
       <c r="AE9" t="n">
-        <v>1406177.214671342</v>
+        <v>1517443.251870162</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.414906900767486e-06</v>
+        <v>2.43432073283442e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.68098958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1271973.634885224</v>
+        <v>1372620.597656653</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>991.406878515478</v>
+        <v>1072.727189581035</v>
       </c>
       <c r="AB10" t="n">
-        <v>1356.4866289695</v>
+        <v>1467.752666168319</v>
       </c>
       <c r="AC10" t="n">
-        <v>1227.025448941591</v>
+        <v>1327.672411713019</v>
       </c>
       <c r="AD10" t="n">
-        <v>991406.878515478</v>
+        <v>1072727.189581035</v>
       </c>
       <c r="AE10" t="n">
-        <v>1356486.6289695</v>
+        <v>1467752.666168319</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.429743226678659e-06</v>
+        <v>2.459846352749814e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.52907986111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1227025.448941591</v>
+        <v>1327672.411713019</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>967.7508858257089</v>
+        <v>1038.895579909801</v>
       </c>
       <c r="AB11" t="n">
-        <v>1324.119456142615</v>
+        <v>1421.462765270856</v>
       </c>
       <c r="AC11" t="n">
-        <v>1197.747353661692</v>
+        <v>1285.800353988926</v>
       </c>
       <c r="AD11" t="n">
-        <v>967750.8858257089</v>
+        <v>1038895.579909801</v>
       </c>
       <c r="AE11" t="n">
-        <v>1324119.456142616</v>
+        <v>1421462.765270856</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.437496403445143e-06</v>
+        <v>2.473185547673341e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.44878472222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1197747.353661692</v>
+        <v>1285800.353988926</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>971.5442109954242</v>
+        <v>1042.688905079516</v>
       </c>
       <c r="AB12" t="n">
-        <v>1329.309650989516</v>
+        <v>1426.652960117756</v>
       </c>
       <c r="AC12" t="n">
-        <v>1202.442203596888</v>
+        <v>1290.495203924123</v>
       </c>
       <c r="AD12" t="n">
-        <v>971544.2109954242</v>
+        <v>1042688.905079516</v>
       </c>
       <c r="AE12" t="n">
-        <v>1329309.650989516</v>
+        <v>1426652.960117756</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.436252066433238e-06</v>
+        <v>2.471044689228824e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.46397569444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>1202442.203596889</v>
+        <v>1290495.203924122</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>684.9820511760277</v>
+        <v>753.8366036933772</v>
       </c>
       <c r="AB2" t="n">
-        <v>937.22266169437</v>
+        <v>1031.432498097078</v>
       </c>
       <c r="AC2" t="n">
-        <v>847.7754462625259</v>
+        <v>932.9940281032955</v>
       </c>
       <c r="AD2" t="n">
-        <v>684982.0511760276</v>
+        <v>753836.6036933772</v>
       </c>
       <c r="AE2" t="n">
-        <v>937222.66169437</v>
+        <v>1031432.498097078</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526626540011021e-06</v>
+        <v>3.060367734635408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>847775.4462625259</v>
+        <v>932994.0281032955</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>629.8903079307883</v>
+        <v>698.8301117941584</v>
       </c>
       <c r="AB3" t="n">
-        <v>861.8437081100561</v>
+        <v>956.1701891654138</v>
       </c>
       <c r="AC3" t="n">
-        <v>779.5905542132731</v>
+        <v>864.9146483047551</v>
       </c>
       <c r="AD3" t="n">
-        <v>629890.3079307883</v>
+        <v>698830.1117941584</v>
       </c>
       <c r="AE3" t="n">
-        <v>861843.7081100561</v>
+        <v>956170.1891654138</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584933203841261e-06</v>
+        <v>3.177252793307984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.68576388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>779590.5542132731</v>
+        <v>864914.6483047551</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2161.882790338261</v>
+        <v>2279.653811270043</v>
       </c>
       <c r="AB2" t="n">
-        <v>2957.98340927825</v>
+        <v>3119.122915808044</v>
       </c>
       <c r="AC2" t="n">
-        <v>2675.677624252523</v>
+        <v>2821.438202439713</v>
       </c>
       <c r="AD2" t="n">
-        <v>2161882.790338261</v>
+        <v>2279653.811270043</v>
       </c>
       <c r="AE2" t="n">
-        <v>2957983.40927825</v>
+        <v>3119122.915808044</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.187073435522514e-07</v>
+        <v>1.627098971725626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.50694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2675677.624252523</v>
+        <v>2821438.202439713</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1306.124411096528</v>
+        <v>1394.282084594771</v>
       </c>
       <c r="AB3" t="n">
-        <v>1787.097041404521</v>
+        <v>1907.718259526882</v>
       </c>
       <c r="AC3" t="n">
-        <v>1616.539007979324</v>
+        <v>1725.64830633703</v>
       </c>
       <c r="AD3" t="n">
-        <v>1306124.411096528</v>
+        <v>1394282.084594771</v>
       </c>
       <c r="AE3" t="n">
-        <v>1787097.041404521</v>
+        <v>1907718.259526882</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.238642797356464e-06</v>
+        <v>2.193728433824617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.43489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1616539.007979324</v>
+        <v>1725648.30633703</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1107.846085043864</v>
+        <v>1196.003669033556</v>
       </c>
       <c r="AB4" t="n">
-        <v>1515.803888276883</v>
+        <v>1636.424983929696</v>
       </c>
       <c r="AC4" t="n">
-        <v>1371.137692623856</v>
+        <v>1480.246880200335</v>
       </c>
       <c r="AD4" t="n">
-        <v>1107846.085043864</v>
+        <v>1196003.669033556</v>
       </c>
       <c r="AE4" t="n">
-        <v>1515803.888276883</v>
+        <v>1636424.983929696</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.353481215300495e-06</v>
+        <v>2.397115805290321e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1371137.692623856</v>
+        <v>1480246.880200335</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1016.188730976728</v>
+        <v>1094.532152730655</v>
       </c>
       <c r="AB5" t="n">
-        <v>1390.39425280515</v>
+        <v>1497.587178716711</v>
       </c>
       <c r="AC5" t="n">
-        <v>1257.696976748016</v>
+        <v>1354.659560256794</v>
       </c>
       <c r="AD5" t="n">
-        <v>1016188.730976728</v>
+        <v>1094532.152730655</v>
       </c>
       <c r="AE5" t="n">
-        <v>1390394.252805151</v>
+        <v>1497587.178716711</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.413686798364741e-06</v>
+        <v>2.503744366587331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.27560763888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1257696.976748016</v>
+        <v>1354659.560256794</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>942.5686327044131</v>
+        <v>1020.997305804361</v>
       </c>
       <c r="AB6" t="n">
-        <v>1289.663986459459</v>
+        <v>1396.973557023668</v>
       </c>
       <c r="AC6" t="n">
-        <v>1166.580265646541</v>
+        <v>1263.64836140603</v>
       </c>
       <c r="AD6" t="n">
-        <v>942568.632704413</v>
+        <v>1020997.305804361</v>
       </c>
       <c r="AE6" t="n">
-        <v>1289663.986459459</v>
+        <v>1396973.557023668</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.452098955493333e-06</v>
+        <v>2.571775151150383e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.87196180555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1166580.265646541</v>
+        <v>1263648.36140603</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>901.0004514805129</v>
+        <v>979.4291245804608</v>
       </c>
       <c r="AB7" t="n">
-        <v>1232.78856705019</v>
+        <v>1340.0981376144</v>
       </c>
       <c r="AC7" t="n">
-        <v>1115.13295644054</v>
+        <v>1212.20105220003</v>
       </c>
       <c r="AD7" t="n">
-        <v>901000.4514805129</v>
+        <v>979429.1245804608</v>
       </c>
       <c r="AE7" t="n">
-        <v>1232788.56705019</v>
+        <v>1340098.1376144</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.468021093163216e-06</v>
+        <v>2.599974440088435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.71137152777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1115132.95644054</v>
+        <v>1212201.05220003</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>869.7913870889598</v>
+        <v>948.2200601889078</v>
       </c>
       <c r="AB8" t="n">
-        <v>1190.08694830292</v>
+        <v>1297.396518867129</v>
       </c>
       <c r="AC8" t="n">
-        <v>1076.506720254411</v>
+        <v>1173.5748160139</v>
       </c>
       <c r="AD8" t="n">
-        <v>869791.3870889598</v>
+        <v>948220.0601889078</v>
       </c>
       <c r="AE8" t="n">
-        <v>1190086.94830292</v>
+        <v>1297396.518867129</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.486132524762708e-06</v>
+        <v>2.63205113125547e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1076506.720254411</v>
+        <v>1173574.8160139</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>874.2600491616178</v>
+        <v>952.6887222615659</v>
       </c>
       <c r="AB9" t="n">
-        <v>1196.201168894187</v>
+        <v>1303.510739458397</v>
       </c>
       <c r="AC9" t="n">
-        <v>1082.03740821381</v>
+        <v>1179.1055039733</v>
       </c>
       <c r="AD9" t="n">
-        <v>874260.0491616178</v>
+        <v>952688.7222615659</v>
       </c>
       <c r="AE9" t="n">
-        <v>1196201.168894187</v>
+        <v>1303510.739458397</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.486033011402272e-06</v>
+        <v>2.631874885699607e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.53342013888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1082037.40821381</v>
+        <v>1179105.5039733</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2611.521808066713</v>
+        <v>2741.379707885854</v>
       </c>
       <c r="AB2" t="n">
-        <v>3573.199350007983</v>
+        <v>3750.876657466756</v>
       </c>
       <c r="AC2" t="n">
-        <v>3232.178219059871</v>
+        <v>3392.898253666438</v>
       </c>
       <c r="AD2" t="n">
-        <v>2611521.808066713</v>
+        <v>2741379.707885854</v>
       </c>
       <c r="AE2" t="n">
-        <v>3573199.350007983</v>
+        <v>3750876.657466756</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.307278369972597e-07</v>
+        <v>1.448716809229456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.47092013888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3232178.219059872</v>
+        <v>3392898.253666439</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1482.671427343586</v>
+        <v>1572.605901241997</v>
       </c>
       <c r="AB3" t="n">
-        <v>2028.656457738404</v>
+        <v>2151.708772555176</v>
       </c>
       <c r="AC3" t="n">
-        <v>1835.044332649071</v>
+        <v>1946.352707244738</v>
       </c>
       <c r="AD3" t="n">
-        <v>1482671.427343586</v>
+        <v>1572605.901241997</v>
       </c>
       <c r="AE3" t="n">
-        <v>2028656.457738403</v>
+        <v>2151708.772555176</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.169161677633115e-06</v>
+        <v>2.038915875524696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.09678819444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1835044.332649071</v>
+        <v>1946352.707244738</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1243.471890790833</v>
+        <v>1323.404172995418</v>
       </c>
       <c r="AB4" t="n">
-        <v>1701.373099088149</v>
+        <v>1810.739973963874</v>
       </c>
       <c r="AC4" t="n">
-        <v>1538.996438403317</v>
+        <v>1637.925492238276</v>
       </c>
       <c r="AD4" t="n">
-        <v>1243471.890790833</v>
+        <v>1323404.172995418</v>
       </c>
       <c r="AE4" t="n">
-        <v>1701373.099088149</v>
+        <v>1810739.973963874</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.293380840113691e-06</v>
+        <v>2.255543248172387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.36067708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1538996.438403317</v>
+        <v>1637925.492238276</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1131.199506501738</v>
+        <v>1211.217040052343</v>
       </c>
       <c r="AB5" t="n">
-        <v>1547.757069795787</v>
+        <v>1657.240589324161</v>
       </c>
       <c r="AC5" t="n">
-        <v>1400.041307345167</v>
+        <v>1499.075873430838</v>
       </c>
       <c r="AD5" t="n">
-        <v>1131199.506501738</v>
+        <v>1211217.040052343</v>
       </c>
       <c r="AE5" t="n">
-        <v>1547757.069795787</v>
+        <v>1657240.589324161</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.357732996500803e-06</v>
+        <v>2.367767789732416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.5859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1400041.307345167</v>
+        <v>1499075.873430838</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1063.221530809445</v>
+        <v>1133.236962174776</v>
       </c>
       <c r="AB6" t="n">
-        <v>1454.746604476962</v>
+        <v>1550.544806533838</v>
       </c>
       <c r="AC6" t="n">
-        <v>1315.907630295362</v>
+        <v>1402.562986401551</v>
       </c>
       <c r="AD6" t="n">
-        <v>1063221.530809445</v>
+        <v>1133236.962174776</v>
       </c>
       <c r="AE6" t="n">
-        <v>1454746.604476962</v>
+        <v>1550544.806533838</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.398976878548906e-06</v>
+        <v>2.439693518641343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.12586805555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1315907.630295362</v>
+        <v>1402562.986401551</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>998.8922446469732</v>
+        <v>1078.824437343007</v>
       </c>
       <c r="AB7" t="n">
-        <v>1366.728437141659</v>
+        <v>1476.095189547835</v>
       </c>
       <c r="AC7" t="n">
-        <v>1236.289793316267</v>
+        <v>1335.21873637</v>
       </c>
       <c r="AD7" t="n">
-        <v>998892.2446469732</v>
+        <v>1078824.437343007</v>
       </c>
       <c r="AE7" t="n">
-        <v>1366728.437141659</v>
+        <v>1476095.189547835</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.428227858724866e-06</v>
+        <v>2.490704673895901e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.81553819444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1236289.793316267</v>
+        <v>1335218.73637</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>963.696124484838</v>
+        <v>1043.628317180872</v>
       </c>
       <c r="AB8" t="n">
-        <v>1318.571552792591</v>
+        <v>1427.938305198767</v>
       </c>
       <c r="AC8" t="n">
-        <v>1192.728934420863</v>
+        <v>1291.657877474595</v>
       </c>
       <c r="AD8" t="n">
-        <v>963696.124484838</v>
+        <v>1043628.317180872</v>
       </c>
       <c r="AE8" t="n">
-        <v>1318571.552792591</v>
+        <v>1427938.305198767</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.442950852080099e-06</v>
+        <v>2.516380288707362e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.66362847222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1192728.934420863</v>
+        <v>1291657.877474595</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>924.8163387774275</v>
+        <v>994.9170214887788</v>
       </c>
       <c r="AB9" t="n">
-        <v>1265.374514732623</v>
+        <v>1361.289361442148</v>
       </c>
       <c r="AC9" t="n">
-        <v>1144.608947010826</v>
+        <v>1231.369815367728</v>
       </c>
       <c r="AD9" t="n">
-        <v>924816.3387774276</v>
+        <v>994917.0214887788</v>
       </c>
       <c r="AE9" t="n">
-        <v>1265374.514732623</v>
+        <v>1361289.361442148</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.458843884642371e-06</v>
+        <v>2.544096349729005e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1144608.947010826</v>
+        <v>1231369.815367728</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>922.0276939573001</v>
+        <v>991.9577844680592</v>
       </c>
       <c r="AB10" t="n">
-        <v>1261.558967863398</v>
+        <v>1357.240402798077</v>
       </c>
       <c r="AC10" t="n">
-        <v>1141.157550579647</v>
+        <v>1227.707283653897</v>
       </c>
       <c r="AD10" t="n">
-        <v>922027.6939573002</v>
+        <v>991957.7844680592</v>
       </c>
       <c r="AE10" t="n">
-        <v>1261558.967863398</v>
+        <v>1357240.402798077</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.459623910780397e-06</v>
+        <v>2.54545664720246e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.49652777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1141157.550579647</v>
+        <v>1227707.283653897</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3780.958434961279</v>
+        <v>3935.934563473</v>
       </c>
       <c r="AB2" t="n">
-        <v>5173.274134828025</v>
+        <v>5385.319310922026</v>
       </c>
       <c r="AC2" t="n">
-        <v>4679.544112135693</v>
+        <v>4871.351994230549</v>
       </c>
       <c r="AD2" t="n">
-        <v>3780958.434961279</v>
+        <v>3935934.563473</v>
       </c>
       <c r="AE2" t="n">
-        <v>5173274.134828025</v>
+        <v>5385319.310922027</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.776093161813859e-07</v>
+        <v>1.151890928016663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.14105902777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>4679544.112135693</v>
+        <v>4871351.994230549</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1853.796187986428</v>
+        <v>1957.170441224921</v>
       </c>
       <c r="AB3" t="n">
-        <v>2536.44572811884</v>
+        <v>2677.886941949932</v>
       </c>
       <c r="AC3" t="n">
-        <v>2294.370907751115</v>
+        <v>2422.313170648158</v>
       </c>
       <c r="AD3" t="n">
-        <v>1853796.187986428</v>
+        <v>1957170.441224921</v>
       </c>
       <c r="AE3" t="n">
-        <v>2536445.72811884</v>
+        <v>2677886.941949932</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045212370209788e-06</v>
+        <v>1.776791756465702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.53993055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2294370.907751115</v>
+        <v>2422313.170648158</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1515.798408216028</v>
+        <v>1608.66464393008</v>
       </c>
       <c r="AB4" t="n">
-        <v>2073.98225442733</v>
+        <v>2201.045935100466</v>
       </c>
       <c r="AC4" t="n">
-        <v>1876.044298917161</v>
+        <v>1990.981200241849</v>
       </c>
       <c r="AD4" t="n">
-        <v>1515798.408216028</v>
+        <v>1608664.64393008</v>
       </c>
       <c r="AE4" t="n">
-        <v>2073982.25442733</v>
+        <v>2201045.935100466</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.184404617242047e-06</v>
+        <v>2.013409351262458e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.24392361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1876044.298917161</v>
+        <v>1990981.200241849</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1368.48168077176</v>
+        <v>1451.095832016535</v>
       </c>
       <c r="AB5" t="n">
-        <v>1872.417008782755</v>
+        <v>1985.453335194979</v>
       </c>
       <c r="AC5" t="n">
-        <v>1693.716157418305</v>
+        <v>1795.964455485228</v>
       </c>
       <c r="AD5" t="n">
-        <v>1368481.68077176</v>
+        <v>1451095.832016535</v>
       </c>
       <c r="AE5" t="n">
-        <v>1872417.008782755</v>
+        <v>1985453.335194979</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.257906405566723e-06</v>
+        <v>2.138357519982044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.23697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1693716.157418305</v>
+        <v>1795964.455485228</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1274.742954765251</v>
+        <v>1357.442357356046</v>
       </c>
       <c r="AB6" t="n">
-        <v>1744.159548399924</v>
+        <v>1857.312519464798</v>
       </c>
       <c r="AC6" t="n">
-        <v>1577.699409043936</v>
+        <v>1680.05321936157</v>
       </c>
       <c r="AD6" t="n">
-        <v>1274742.954765251</v>
+        <v>1357442.357356046</v>
       </c>
       <c r="AE6" t="n">
-        <v>1744159.548399924</v>
+        <v>1857312.519464798</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.30533905769942e-06</v>
+        <v>2.21898988494321e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.64670138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1577699.409043936</v>
+        <v>1680053.21936157</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1218.086604472477</v>
+        <v>1300.61541486268</v>
       </c>
       <c r="AB7" t="n">
-        <v>1666.639830427582</v>
+        <v>1779.559389717609</v>
       </c>
       <c r="AC7" t="n">
-        <v>1507.578064155266</v>
+        <v>1609.72073919025</v>
       </c>
       <c r="AD7" t="n">
-        <v>1218086.604472477</v>
+        <v>1300615.41486268</v>
       </c>
       <c r="AE7" t="n">
-        <v>1666639.830427582</v>
+        <v>1779559.389717609</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.335925589332607e-06</v>
+        <v>2.270984961555073e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.28862847222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1507578.064155266</v>
+        <v>1609720.73919025</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1171.9474161858</v>
+        <v>1244.309482961297</v>
       </c>
       <c r="AB8" t="n">
-        <v>1603.510157496423</v>
+        <v>1702.519129647736</v>
       </c>
       <c r="AC8" t="n">
-        <v>1450.473398605605</v>
+        <v>1540.033093414761</v>
       </c>
       <c r="AD8" t="n">
-        <v>1171947.4161858</v>
+        <v>1244309.482961297</v>
       </c>
       <c r="AE8" t="n">
-        <v>1603510.157496423</v>
+        <v>1702519.129647736</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.359830140209006e-06</v>
+        <v>2.311621113737883e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.01953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1450473.398605605</v>
+        <v>1540033.093414761</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1136.301366842712</v>
+        <v>1218.915428578935</v>
       </c>
       <c r="AB9" t="n">
-        <v>1554.7376601925</v>
+        <v>1667.773864135177</v>
       </c>
       <c r="AC9" t="n">
-        <v>1406.355679991739</v>
+        <v>1508.603867277435</v>
       </c>
       <c r="AD9" t="n">
-        <v>1136301.366842712</v>
+        <v>1218915.428578935</v>
       </c>
       <c r="AE9" t="n">
-        <v>1554737.660192501</v>
+        <v>1667773.864135177</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.370558954381878e-06</v>
+        <v>2.329859386764814e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.90234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1406355.679991739</v>
+        <v>1508603.867277435</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1095.757309205297</v>
+        <v>1178.37137094152</v>
       </c>
       <c r="AB10" t="n">
-        <v>1499.263491855404</v>
+        <v>1612.299695798081</v>
       </c>
       <c r="AC10" t="n">
-        <v>1356.175888422251</v>
+        <v>1458.424075707946</v>
       </c>
       <c r="AD10" t="n">
-        <v>1095757.309205297</v>
+        <v>1178371.37094152</v>
       </c>
       <c r="AE10" t="n">
-        <v>1499263.491855405</v>
+        <v>1612299.695798081</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.389099098171841e-06</v>
+        <v>2.361376402434158e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.70269097222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1356175.888422251</v>
+        <v>1458424.075707946</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1059.689098827444</v>
+        <v>1142.303160563667</v>
       </c>
       <c r="AB11" t="n">
-        <v>1449.913375199287</v>
+        <v>1562.949579141963</v>
       </c>
       <c r="AC11" t="n">
-        <v>1311.535677636469</v>
+        <v>1413.783864922165</v>
       </c>
       <c r="AD11" t="n">
-        <v>1059689.098827444</v>
+        <v>1142303.160563667</v>
       </c>
       <c r="AE11" t="n">
-        <v>1449913.375199287</v>
+        <v>1562949.579141963</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.402368947280393e-06</v>
+        <v>2.383934266441151e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.56380208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1311535.677636469</v>
+        <v>1413783.864922165</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1031.860939464289</v>
+        <v>1104.137665385214</v>
       </c>
       <c r="AB12" t="n">
-        <v>1411.837659866874</v>
+        <v>1510.729864895989</v>
       </c>
       <c r="AC12" t="n">
-        <v>1277.09385513578</v>
+        <v>1366.547926912998</v>
       </c>
       <c r="AD12" t="n">
-        <v>1031860.939464289</v>
+        <v>1104137.665385214</v>
       </c>
       <c r="AE12" t="n">
-        <v>1411837.659866874</v>
+        <v>1510729.864895989</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.411497850567837e-06</v>
+        <v>2.399452796999154e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.46831597222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1277093.85513578</v>
+        <v>1366547.926912998</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1016.793871072553</v>
+        <v>1089.070596993478</v>
       </c>
       <c r="AB13" t="n">
-        <v>1391.222232181156</v>
+        <v>1490.114437210272</v>
       </c>
       <c r="AC13" t="n">
-        <v>1258.445934934453</v>
+        <v>1347.900006711671</v>
       </c>
       <c r="AD13" t="n">
-        <v>1016793.871072553</v>
+        <v>1089070.596993478</v>
       </c>
       <c r="AE13" t="n">
-        <v>1391222.232181157</v>
+        <v>1490114.437210272</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.416015246009046e-06</v>
+        <v>2.407132069852598e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.42274305555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1258445.934934453</v>
+        <v>1347900.006711671</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1019.92464212472</v>
+        <v>1092.201368045645</v>
       </c>
       <c r="AB14" t="n">
-        <v>1395.505891254602</v>
+        <v>1494.398096283717</v>
       </c>
       <c r="AC14" t="n">
-        <v>1262.320767598082</v>
+        <v>1351.7748393753</v>
       </c>
       <c r="AD14" t="n">
-        <v>1019924.64212472</v>
+        <v>1092201.368045645</v>
       </c>
       <c r="AE14" t="n">
-        <v>1395505.891254602</v>
+        <v>1494398.096283717</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.415638796388945e-06</v>
+        <v>2.406492130448145e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1262320.767598082</v>
+        <v>1351774.8393753</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1773.321625083814</v>
+        <v>1879.011235056508</v>
       </c>
       <c r="AB2" t="n">
-        <v>2426.336880868335</v>
+        <v>2570.94606792949</v>
       </c>
       <c r="AC2" t="n">
-        <v>2194.770694343461</v>
+        <v>2325.578583551768</v>
       </c>
       <c r="AD2" t="n">
-        <v>1773321.625083814</v>
+        <v>1879011.235056508</v>
       </c>
       <c r="AE2" t="n">
-        <v>2426336.880868335</v>
+        <v>2570946.06792949</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.016625032968519e-06</v>
+        <v>1.833215508531552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.73394097222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2194770.694343461</v>
+        <v>2325578.583551768</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1136.187373521736</v>
+        <v>1222.57534991755</v>
       </c>
       <c r="AB3" t="n">
-        <v>1554.581689501711</v>
+        <v>1672.781529975003</v>
       </c>
       <c r="AC3" t="n">
-        <v>1406.214594924771</v>
+        <v>1513.133608517811</v>
       </c>
       <c r="AD3" t="n">
-        <v>1136187.373521736</v>
+        <v>1222575.34991755</v>
       </c>
       <c r="AE3" t="n">
-        <v>1554581.689501711</v>
+        <v>1672781.529975003</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.314841830321027e-06</v>
+        <v>2.370970964163892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.80338541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1406214.594924771</v>
+        <v>1513133.608517811</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>977.3830661476671</v>
+        <v>1054.248237036899</v>
       </c>
       <c r="AB4" t="n">
-        <v>1337.298630200924</v>
+        <v>1442.468948063582</v>
       </c>
       <c r="AC4" t="n">
-        <v>1209.668725844963</v>
+        <v>1304.801736178277</v>
       </c>
       <c r="AD4" t="n">
-        <v>977383.0661476671</v>
+        <v>1054248.237036899</v>
       </c>
       <c r="AE4" t="n">
-        <v>1337298.630200924</v>
+        <v>1442468.948063582</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.421238741633205e-06</v>
+        <v>2.562829773018721e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1209668.725844963</v>
+        <v>1304801.736178277</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>884.4427857192962</v>
+        <v>961.2226157539565</v>
       </c>
       <c r="AB5" t="n">
-        <v>1210.133638283035</v>
+        <v>1315.187189023495</v>
       </c>
       <c r="AC5" t="n">
-        <v>1094.640182278529</v>
+        <v>1189.667569579905</v>
       </c>
       <c r="AD5" t="n">
-        <v>884442.7857192962</v>
+        <v>961222.6157539565</v>
       </c>
       <c r="AE5" t="n">
-        <v>1210133.638283035</v>
+        <v>1315187.189023495</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.477542561686444e-06</v>
+        <v>2.664358884307449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.95442708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1094640.18227853</v>
+        <v>1189667.569579905</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>825.7330505685496</v>
+        <v>902.5128806032099</v>
       </c>
       <c r="AB6" t="n">
-        <v>1129.804388559068</v>
+        <v>1234.857939299528</v>
       </c>
       <c r="AC6" t="n">
-        <v>1021.977443405408</v>
+        <v>1117.004830706784</v>
       </c>
       <c r="AD6" t="n">
-        <v>825733.0505685497</v>
+        <v>902512.8806032098</v>
       </c>
       <c r="AE6" t="n">
-        <v>1129804.388559068</v>
+        <v>1234857.939299528</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.511141586311342e-06</v>
+        <v>2.724945876577395e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.62239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1021977.443405408</v>
+        <v>1117004.830706784</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>819.8109792239105</v>
+        <v>896.5908092585709</v>
       </c>
       <c r="AB7" t="n">
-        <v>1121.701549281984</v>
+        <v>1226.755100022445</v>
       </c>
       <c r="AC7" t="n">
-        <v>1014.647927736523</v>
+        <v>1109.675315037898</v>
       </c>
       <c r="AD7" t="n">
-        <v>819810.9792239105</v>
+        <v>896590.8092585709</v>
       </c>
       <c r="AE7" t="n">
-        <v>1121701.549281984</v>
+        <v>1226755.100022445</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.516334162844281e-06</v>
+        <v>2.734309320837296e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.57248263888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1014647.927736523</v>
+        <v>1109675.315037898</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1280.173314205126</v>
+        <v>1372.519926999296</v>
       </c>
       <c r="AB2" t="n">
-        <v>1751.58960575611</v>
+        <v>1877.942315426119</v>
       </c>
       <c r="AC2" t="n">
-        <v>1584.420352154199</v>
+        <v>1698.714136550443</v>
       </c>
       <c r="AD2" t="n">
-        <v>1280173.314205125</v>
+        <v>1372519.926999296</v>
       </c>
       <c r="AE2" t="n">
-        <v>1751589.60575611</v>
+        <v>1877942.315426119</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.190709968315026e-06</v>
+        <v>2.221484199081534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.32942708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1584420.352154199</v>
+        <v>1698714.136550443</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>884.3520514072609</v>
+        <v>967.4468541934041</v>
       </c>
       <c r="AB3" t="n">
-        <v>1210.009491594393</v>
+        <v>1323.703466650367</v>
       </c>
       <c r="AC3" t="n">
-        <v>1094.527883975611</v>
+        <v>1197.371065622739</v>
       </c>
       <c r="AD3" t="n">
-        <v>884352.0514072609</v>
+        <v>967446.8541934041</v>
       </c>
       <c r="AE3" t="n">
-        <v>1210009.491594393</v>
+        <v>1323703.466650367</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.450021081927767e-06</v>
+        <v>2.705275850168587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.87239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1094527.883975611</v>
+        <v>1197371.065622739</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>758.5875730458922</v>
+        <v>832.5159961871304</v>
       </c>
       <c r="AB4" t="n">
-        <v>1037.932983963165</v>
+        <v>1139.085113996851</v>
       </c>
       <c r="AC4" t="n">
-        <v>938.8741167218114</v>
+        <v>1030.372429432989</v>
       </c>
       <c r="AD4" t="n">
-        <v>758587.5730458922</v>
+        <v>832515.9961871305</v>
       </c>
       <c r="AE4" t="n">
-        <v>1037932.983963165</v>
+        <v>1139085.113996851</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.541548890127274e-06</v>
+        <v>2.876037484069662e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.93055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>938874.1167218115</v>
+        <v>1030372.429432989</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>745.1506664069497</v>
+        <v>819.0790895481879</v>
       </c>
       <c r="AB5" t="n">
-        <v>1019.54801550528</v>
+        <v>1120.700145538967</v>
       </c>
       <c r="AC5" t="n">
-        <v>922.2437838500822</v>
+        <v>1013.74209656126</v>
       </c>
       <c r="AD5" t="n">
-        <v>745150.6664069496</v>
+        <v>819079.0895481879</v>
       </c>
       <c r="AE5" t="n">
-        <v>1019548.01550528</v>
+        <v>1120700.145538967</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.55194254621482e-06</v>
+        <v>2.895428724072333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.83072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>922243.7838500822</v>
+        <v>1013742.09656126</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>978.3371766546321</v>
+        <v>1067.834721410416</v>
       </c>
       <c r="AB2" t="n">
-        <v>1338.604086288938</v>
+        <v>1461.058575376815</v>
       </c>
       <c r="AC2" t="n">
-        <v>1210.849591036156</v>
+        <v>1321.617195551441</v>
       </c>
       <c r="AD2" t="n">
-        <v>978337.1766546321</v>
+        <v>1067834.721410416</v>
       </c>
       <c r="AE2" t="n">
-        <v>1338604.086288938</v>
+        <v>1461058.575376815</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.3351928902477e-06</v>
+        <v>2.567625441715748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.83203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1210849.591036156</v>
+        <v>1321617.195551441</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>708.7847217820183</v>
+        <v>780.3487107533676</v>
       </c>
       <c r="AB3" t="n">
-        <v>969.7905257172014</v>
+        <v>1067.707532608172</v>
       </c>
       <c r="AC3" t="n">
-        <v>877.2350790523022</v>
+        <v>965.8070242329815</v>
       </c>
       <c r="AD3" t="n">
-        <v>708784.7217820183</v>
+        <v>780348.7107533676</v>
       </c>
       <c r="AE3" t="n">
-        <v>969790.5257172014</v>
+        <v>1067707.532608172</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.562406076418857e-06</v>
+        <v>3.004564824607556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.23871527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>877235.0790523023</v>
+        <v>965807.0242329815</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>696.9745143231124</v>
+        <v>759.7423623571124</v>
       </c>
       <c r="AB4" t="n">
-        <v>953.6312788423458</v>
+        <v>1039.513017644485</v>
       </c>
       <c r="AC4" t="n">
-        <v>862.6180480195376</v>
+        <v>940.3033542061779</v>
       </c>
       <c r="AD4" t="n">
-        <v>696974.5143231124</v>
+        <v>759742.3623571123</v>
       </c>
       <c r="AE4" t="n">
-        <v>953631.2788423457</v>
+        <v>1039513.017644485</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.575132647928203e-06</v>
+        <v>3.029038493567213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.11501736111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>862618.0480195376</v>
+        <v>940303.3542061779</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>595.1058584674379</v>
+        <v>662.2371411222384</v>
       </c>
       <c r="AB2" t="n">
-        <v>814.2500897726952</v>
+        <v>906.102072324163</v>
       </c>
       <c r="AC2" t="n">
-        <v>736.5392040119669</v>
+        <v>819.6249622637899</v>
       </c>
       <c r="AD2" t="n">
-        <v>595105.8584674379</v>
+        <v>662237.1411222385</v>
       </c>
       <c r="AE2" t="n">
-        <v>814250.0897726952</v>
+        <v>906102.072324163</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.566131581391437e-06</v>
+        <v>3.230301936942738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.31727430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>736539.2040119669</v>
+        <v>819624.96226379</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2378.298148291799</v>
+        <v>2506.875152849071</v>
       </c>
       <c r="AB2" t="n">
-        <v>3254.092449602226</v>
+        <v>3430.017179654598</v>
       </c>
       <c r="AC2" t="n">
-        <v>2943.526433359504</v>
+        <v>3102.66115408758</v>
       </c>
       <c r="AD2" t="n">
-        <v>2378298.148291799</v>
+        <v>2506875.152849071</v>
       </c>
       <c r="AE2" t="n">
-        <v>3254092.449602226</v>
+        <v>3430017.179654598</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.735861875985431e-07</v>
+        <v>1.534856470578633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.46397569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2943526.433359504</v>
+        <v>3102661.15408758</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1389.029871784302</v>
+        <v>1478.221905515988</v>
       </c>
       <c r="AB3" t="n">
-        <v>1900.531950248323</v>
+        <v>2022.568425674835</v>
       </c>
       <c r="AC3" t="n">
-        <v>1719.147848329968</v>
+        <v>1829.537333821042</v>
       </c>
       <c r="AD3" t="n">
-        <v>1389029.871784302</v>
+        <v>1478221.905515988</v>
       </c>
       <c r="AE3" t="n">
-        <v>1900531.950248323</v>
+        <v>2022568.425674835</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.202892039399865e-06</v>
+        <v>2.113433861810168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.76692708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1719147.848329968</v>
+        <v>1829537.333821042</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1180.384592434551</v>
+        <v>1259.581148850029</v>
       </c>
       <c r="AB4" t="n">
-        <v>1615.05427426191</v>
+        <v>1723.414496655049</v>
       </c>
       <c r="AC4" t="n">
-        <v>1460.915761069263</v>
+        <v>1558.934235921728</v>
       </c>
       <c r="AD4" t="n">
-        <v>1180384.592434551</v>
+        <v>1259581.148850029</v>
       </c>
       <c r="AE4" t="n">
-        <v>1615054.27426191</v>
+        <v>1723414.496655049</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.32283657513372e-06</v>
+        <v>2.324171679549406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.15451388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1460915.761069263</v>
+        <v>1558934.235921728</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1073.631140762931</v>
+        <v>1152.742356323838</v>
       </c>
       <c r="AB5" t="n">
-        <v>1468.989492054901</v>
+        <v>1577.232947325842</v>
       </c>
       <c r="AC5" t="n">
-        <v>1328.791196672882</v>
+        <v>1426.704048493408</v>
       </c>
       <c r="AD5" t="n">
-        <v>1073631.140762931</v>
+        <v>1152742.356323838</v>
       </c>
       <c r="AE5" t="n">
-        <v>1468989.492054901</v>
+        <v>1577232.947325842</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385073805498085e-06</v>
+        <v>2.433520038179289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1328791.196672881</v>
+        <v>1426704.048493408</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1009.524606790231</v>
+        <v>1078.896278090094</v>
       </c>
       <c r="AB6" t="n">
-        <v>1381.276104092776</v>
+        <v>1476.19348522739</v>
       </c>
       <c r="AC6" t="n">
-        <v>1249.44905135135</v>
+        <v>1335.307650847856</v>
       </c>
       <c r="AD6" t="n">
-        <v>1009524.606790231</v>
+        <v>1078896.278090094</v>
       </c>
       <c r="AE6" t="n">
-        <v>1381276.104092777</v>
+        <v>1476193.48522739</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.423775121215166e-06</v>
+        <v>2.501516723213378e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.01085069444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1249449.05135135</v>
+        <v>1335307.650847856</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>936.44868412631</v>
+        <v>1015.645151033238</v>
       </c>
       <c r="AB7" t="n">
-        <v>1281.290402821822</v>
+        <v>1389.650502745413</v>
       </c>
       <c r="AC7" t="n">
-        <v>1159.005845078882</v>
+        <v>1257.024209150121</v>
       </c>
       <c r="AD7" t="n">
-        <v>936448.6841263101</v>
+        <v>1015645.151033238</v>
       </c>
       <c r="AE7" t="n">
-        <v>1281290.402821822</v>
+        <v>1389650.502745413</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.460014521174163e-06</v>
+        <v>2.565187919377614e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.63758680555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1159005.845078882</v>
+        <v>1257024.209150121</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>905.5803501651772</v>
+        <v>984.7768170721046</v>
       </c>
       <c r="AB8" t="n">
-        <v>1239.054986481418</v>
+        <v>1347.415086405009</v>
       </c>
       <c r="AC8" t="n">
-        <v>1120.801317596226</v>
+        <v>1218.819681667465</v>
       </c>
       <c r="AD8" t="n">
-        <v>905580.3501651771</v>
+        <v>984776.8170721045</v>
       </c>
       <c r="AE8" t="n">
-        <v>1239054.986481418</v>
+        <v>1347415.086405009</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.468877417903266e-06</v>
+        <v>2.580759679309085e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.54861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1120801.317596226</v>
+        <v>1218819.681667465</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>897.1261316738953</v>
+        <v>966.583054319779</v>
       </c>
       <c r="AB9" t="n">
-        <v>1227.48755176785</v>
+        <v>1322.521577555113</v>
       </c>
       <c r="AC9" t="n">
-        <v>1110.337862616724</v>
+        <v>1196.301974363944</v>
       </c>
       <c r="AD9" t="n">
-        <v>897126.1316738953</v>
+        <v>966583.0543197789</v>
       </c>
       <c r="AE9" t="n">
-        <v>1227487.55176785</v>
+        <v>1322521.577555113</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.472619529855553e-06</v>
+        <v>2.587334422391261e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.51171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1110337.862616724</v>
+        <v>1196301.974363944</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3439.848389527567</v>
+        <v>3593.631650259229</v>
       </c>
       <c r="AB2" t="n">
-        <v>4706.552321952473</v>
+        <v>4916.965363724187</v>
       </c>
       <c r="AC2" t="n">
-        <v>4257.365574032823</v>
+        <v>4447.697090414395</v>
       </c>
       <c r="AD2" t="n">
-        <v>3439848.389527567</v>
+        <v>3593631.650259229</v>
       </c>
       <c r="AE2" t="n">
-        <v>4706552.321952473</v>
+        <v>4916965.363724187</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.135171191147798e-07</v>
+        <v>1.220034757629273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.86067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4257365.574032824</v>
+        <v>4447697.090414396</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1761.868700817563</v>
+        <v>1864.277176341127</v>
       </c>
       <c r="AB3" t="n">
-        <v>2410.666484619891</v>
+        <v>2550.786278774311</v>
       </c>
       <c r="AC3" t="n">
-        <v>2180.59585871943</v>
+        <v>2307.342816379117</v>
       </c>
       <c r="AD3" t="n">
-        <v>1761868.700817563</v>
+        <v>1864277.176341126</v>
       </c>
       <c r="AE3" t="n">
-        <v>2410666.484619891</v>
+        <v>2550786.278774311</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.073644458793007e-06</v>
+        <v>1.835812375025615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.18185763888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2180595.858719429</v>
+        <v>2307342.816379117</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1448.943426644852</v>
+        <v>1531.006770332728</v>
       </c>
       <c r="AB4" t="n">
-        <v>1982.50831920802</v>
+        <v>2094.791006420982</v>
       </c>
       <c r="AC4" t="n">
-        <v>1793.300507690708</v>
+        <v>1894.867092825805</v>
       </c>
       <c r="AD4" t="n">
-        <v>1448943.426644852</v>
+        <v>1531006.770332728</v>
       </c>
       <c r="AE4" t="n">
-        <v>1982508.31920802</v>
+        <v>2094791.006420982</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.210293567919923e-06</v>
+        <v>2.069467123128575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.01605902777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1793300.507690708</v>
+        <v>1894867.092825805</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1309.782922358284</v>
+        <v>1391.760925191588</v>
       </c>
       <c r="AB5" t="n">
-        <v>1792.102777914981</v>
+        <v>1904.268698005745</v>
       </c>
       <c r="AC5" t="n">
-        <v>1621.067004022821</v>
+        <v>1722.527966125979</v>
       </c>
       <c r="AD5" t="n">
-        <v>1309782.922358284</v>
+        <v>1391760.925191588</v>
       </c>
       <c r="AE5" t="n">
-        <v>1792102.777914981</v>
+        <v>1904268.698005745</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.282508826284911e-06</v>
+        <v>2.192947167091319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.05685763888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1621067.004022821</v>
+        <v>1722527.966125979</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1221.995368131657</v>
+        <v>1304.058622310982</v>
       </c>
       <c r="AB6" t="n">
-        <v>1671.987973308555</v>
+        <v>1784.270538051968</v>
       </c>
       <c r="AC6" t="n">
-        <v>1512.415787785844</v>
+        <v>1613.982262139715</v>
       </c>
       <c r="AD6" t="n">
-        <v>1221995.368131657</v>
+        <v>1304058.622310982</v>
       </c>
       <c r="AE6" t="n">
-        <v>1671987.973308555</v>
+        <v>1784270.538051968</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.327204472395174e-06</v>
+        <v>2.269371740949996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.51649305555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1512415.787785844</v>
+        <v>1613982.262139715</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1166.385826709271</v>
+        <v>1238.191263624731</v>
       </c>
       <c r="AB7" t="n">
-        <v>1595.900545414625</v>
+        <v>1694.147912034659</v>
       </c>
       <c r="AC7" t="n">
-        <v>1443.590037220736</v>
+        <v>1532.460813061599</v>
       </c>
       <c r="AD7" t="n">
-        <v>1166385.826709271</v>
+        <v>1238191.263624731</v>
       </c>
       <c r="AE7" t="n">
-        <v>1595900.545414625</v>
+        <v>1694147.912034659</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.358140312378073e-06</v>
+        <v>2.322268579756638e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.16276041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1443590.037220736</v>
+        <v>1532460.813061599</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1110.406729876172</v>
+        <v>1192.384643200925</v>
       </c>
       <c r="AB8" t="n">
-        <v>1519.307475504124</v>
+        <v>1631.473273125339</v>
       </c>
       <c r="AC8" t="n">
-        <v>1374.306902403444</v>
+        <v>1475.767753725376</v>
       </c>
       <c r="AD8" t="n">
-        <v>1110406.729876172</v>
+        <v>1192384.643200925</v>
       </c>
       <c r="AE8" t="n">
-        <v>1519307.475504124</v>
+        <v>1631473.273125339</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.381579430401926e-06</v>
+        <v>2.362346859465965e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.90668402777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1374306.902403444</v>
+        <v>1475767.753725376</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1077.369897302007</v>
+        <v>1159.34781062676</v>
       </c>
       <c r="AB9" t="n">
-        <v>1474.105023693962</v>
+        <v>1586.270821315177</v>
       </c>
       <c r="AC9" t="n">
-        <v>1333.418509152004</v>
+        <v>1434.879360473936</v>
       </c>
       <c r="AD9" t="n">
-        <v>1077369.897302007</v>
+        <v>1159347.81062676</v>
       </c>
       <c r="AE9" t="n">
-        <v>1474105.023693962</v>
+        <v>1586270.821315177</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.394959655670603e-06</v>
+        <v>2.385225553551046e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.76345486111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1333418.509152004</v>
+        <v>1434879.360473936</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1041.898135357577</v>
+        <v>1123.87604868233</v>
       </c>
       <c r="AB10" t="n">
-        <v>1425.570994097901</v>
+        <v>1537.736791719116</v>
       </c>
       <c r="AC10" t="n">
-        <v>1289.516499222653</v>
+        <v>1390.977350544585</v>
       </c>
       <c r="AD10" t="n">
-        <v>1041898.135357577</v>
+        <v>1123876.04868233</v>
       </c>
       <c r="AE10" t="n">
-        <v>1425570.994097901</v>
+        <v>1537736.791719116</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410237785232709e-06</v>
+        <v>2.411349452470891e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.60286458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1289516.499222653</v>
+        <v>1390977.350544585</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1009.361502201428</v>
+        <v>1081.081598262316</v>
       </c>
       <c r="AB11" t="n">
-        <v>1381.052937198709</v>
+        <v>1479.183536696546</v>
       </c>
       <c r="AC11" t="n">
-        <v>1249.247183192435</v>
+        <v>1338.01233600136</v>
       </c>
       <c r="AD11" t="n">
-        <v>1009361.502201428</v>
+        <v>1081081.598262316</v>
       </c>
       <c r="AE11" t="n">
-        <v>1381052.937198709</v>
+        <v>1479183.536696546</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.421150734919928e-06</v>
+        <v>2.430009380270781e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.49001736111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1249247.183192435</v>
+        <v>1338012.33600136</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>993.1500379370925</v>
+        <v>1064.870133997981</v>
       </c>
       <c r="AB12" t="n">
-        <v>1358.871696592919</v>
+        <v>1457.002296090756</v>
       </c>
       <c r="AC12" t="n">
-        <v>1229.182889058495</v>
+        <v>1317.948041867419</v>
       </c>
       <c r="AD12" t="n">
-        <v>993150.0379370925</v>
+        <v>1064870.133997981</v>
       </c>
       <c r="AE12" t="n">
-        <v>1358871.696592919</v>
+        <v>1457002.296090756</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.424851648292116e-06</v>
+        <v>2.436337529698569e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1229182.889058494</v>
+        <v>1317948.041867419</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>995.7595338963154</v>
+        <v>1067.479629957204</v>
       </c>
       <c r="AB13" t="n">
-        <v>1362.442124087164</v>
+        <v>1460.572723585001</v>
       </c>
       <c r="AC13" t="n">
-        <v>1232.412559963816</v>
+        <v>1321.177712772741</v>
       </c>
       <c r="AD13" t="n">
-        <v>995759.5338963154</v>
+        <v>1067479.629957204</v>
       </c>
       <c r="AE13" t="n">
-        <v>1362442.124087164</v>
+        <v>1460572.723585001</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.426464866941531e-06</v>
+        <v>2.439095953808118e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.43793402777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>1232412.559963816</v>
+        <v>1321177.712772741</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>556.2418135880494</v>
+        <v>629.4831697887746</v>
       </c>
       <c r="AB2" t="n">
-        <v>761.0745890080634</v>
+        <v>861.2866437424859</v>
       </c>
       <c r="AC2" t="n">
-        <v>688.4386984080277</v>
+        <v>779.0866552870991</v>
       </c>
       <c r="AD2" t="n">
-        <v>556241.8135880494</v>
+        <v>629483.1697887746</v>
       </c>
       <c r="AE2" t="n">
-        <v>761074.5890080634</v>
+        <v>861286.6437424859</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.500407612223412e-06</v>
+        <v>3.216064586429203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.63671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>688438.6984080276</v>
+        <v>779086.6552870991</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1438.236978412774</v>
+        <v>1531.934166817547</v>
       </c>
       <c r="AB2" t="n">
-        <v>1967.859284401731</v>
+        <v>2096.059911205357</v>
       </c>
       <c r="AC2" t="n">
-        <v>1780.049556206281</v>
+        <v>1896.014895118479</v>
       </c>
       <c r="AD2" t="n">
-        <v>1438236.978412774</v>
+        <v>1531934.166817547</v>
       </c>
       <c r="AE2" t="n">
-        <v>1967859.284401731</v>
+        <v>2096059.911205357</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.128623323258546e-06</v>
+        <v>2.079412330648774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.09548611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1780049.556206281</v>
+        <v>1896014.895118479</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>975.1532364458542</v>
+        <v>1050.093936900469</v>
       </c>
       <c r="AB3" t="n">
-        <v>1334.247678829759</v>
+        <v>1436.784851342131</v>
       </c>
       <c r="AC3" t="n">
-        <v>1206.908952990625</v>
+        <v>1299.660121670242</v>
       </c>
       <c r="AD3" t="n">
-        <v>975153.2364458542</v>
+        <v>1050093.936900469</v>
       </c>
       <c r="AE3" t="n">
-        <v>1334247.67882976</v>
+        <v>1436784.851342131</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.402026287759366e-06</v>
+        <v>2.583138847638976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.17621527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1206908.952990625</v>
+        <v>1299660.121670241</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>840.4162174506667</v>
+        <v>906.0640147847736</v>
       </c>
       <c r="AB4" t="n">
-        <v>1149.894545262786</v>
+        <v>1239.716757751727</v>
       </c>
       <c r="AC4" t="n">
-        <v>1040.150223750035</v>
+        <v>1121.399930345299</v>
       </c>
       <c r="AD4" t="n">
-        <v>840416.2174506667</v>
+        <v>906064.0147847736</v>
       </c>
       <c r="AE4" t="n">
-        <v>1149894.545262786</v>
+        <v>1239716.757751727</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.498804248435114e-06</v>
+        <v>2.761445711068994e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.13237847222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1040150.223750035</v>
+        <v>1121399.930345299</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>769.7765400564413</v>
+        <v>844.7171510025048</v>
       </c>
       <c r="AB5" t="n">
-        <v>1053.242222249384</v>
+        <v>1155.779272292207</v>
       </c>
       <c r="AC5" t="n">
-        <v>952.7222627926454</v>
+        <v>1045.473320691035</v>
       </c>
       <c r="AD5" t="n">
-        <v>769776.5400564412</v>
+        <v>844717.1510025049</v>
       </c>
       <c r="AE5" t="n">
-        <v>1053242.222249384</v>
+        <v>1155779.272292207</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.537891675317113e-06</v>
+        <v>2.833461658069887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.74826388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>952722.2627926455</v>
+        <v>1045473.320691035</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>774.4233826026709</v>
+        <v>849.3639935487345</v>
       </c>
       <c r="AB6" t="n">
-        <v>1059.60023722536</v>
+        <v>1162.137287268183</v>
       </c>
       <c r="AC6" t="n">
-        <v>958.4734777428442</v>
+        <v>1051.224535641234</v>
       </c>
       <c r="AD6" t="n">
-        <v>774423.3826026709</v>
+        <v>849363.9935487345</v>
       </c>
       <c r="AE6" t="n">
-        <v>1059600.23722536</v>
+        <v>1162137.287268183</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.537996187153695e-06</v>
+        <v>2.83365421407791e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.74609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>958473.4777428443</v>
+        <v>1051224.535641234</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1962.065757978137</v>
+        <v>2078.545588014394</v>
       </c>
       <c r="AB2" t="n">
-        <v>2684.584930297814</v>
+        <v>2843.957772480849</v>
       </c>
       <c r="AC2" t="n">
-        <v>2428.371912388804</v>
+        <v>2572.534434195079</v>
       </c>
       <c r="AD2" t="n">
-        <v>1962065.757978137</v>
+        <v>2078545.588014394</v>
       </c>
       <c r="AE2" t="n">
-        <v>2684584.930297814</v>
+        <v>2843957.772480849</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.659759722097535e-07</v>
+        <v>1.725645579087197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2428371.912388804</v>
+        <v>2572534.434195078</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1225.894010286783</v>
+        <v>1303.604213722553</v>
       </c>
       <c r="AB3" t="n">
-        <v>1677.32226750115</v>
+        <v>1783.648796174187</v>
       </c>
       <c r="AC3" t="n">
-        <v>1517.240984427428</v>
+        <v>1613.41985843413</v>
       </c>
       <c r="AD3" t="n">
-        <v>1225894.010286783</v>
+        <v>1303604.213722553</v>
       </c>
       <c r="AE3" t="n">
-        <v>1677322.26750115</v>
+        <v>1783648.796174187</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275591395802401e-06</v>
+        <v>2.278750938134208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.11805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1517240.984427427</v>
+        <v>1613419.85843413</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1043.206353123057</v>
+        <v>1120.916467050276</v>
       </c>
       <c r="AB4" t="n">
-        <v>1427.360955359125</v>
+        <v>1533.687361562614</v>
       </c>
       <c r="AC4" t="n">
-        <v>1291.135629093333</v>
+        <v>1387.314392318808</v>
       </c>
       <c r="AD4" t="n">
-        <v>1043206.353123057</v>
+        <v>1120916.467050276</v>
       </c>
       <c r="AE4" t="n">
-        <v>1427360.955359126</v>
+        <v>1533687.361562614</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.386477387612312e-06</v>
+        <v>2.476840670233592e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.74869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1291135.629093333</v>
+        <v>1387314.392318808</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>955.9182130201493</v>
+        <v>1023.914652215017</v>
       </c>
       <c r="AB5" t="n">
-        <v>1307.929471189367</v>
+        <v>1400.965199086968</v>
       </c>
       <c r="AC5" t="n">
-        <v>1183.102518149595</v>
+        <v>1267.259046753113</v>
       </c>
       <c r="AD5" t="n">
-        <v>955918.2130201493</v>
+        <v>1023914.652215017</v>
       </c>
       <c r="AE5" t="n">
-        <v>1307929.471189367</v>
+        <v>1400965.199086968</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.445240925921739e-06</v>
+        <v>2.581817442961396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.10850694444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1183102.518149595</v>
+        <v>1267259.046753113</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>881.4750787613938</v>
+        <v>959.099851834041</v>
       </c>
       <c r="AB6" t="n">
-        <v>1206.073090697242</v>
+        <v>1312.282729778532</v>
       </c>
       <c r="AC6" t="n">
-        <v>1090.96716765531</v>
+        <v>1187.040307848847</v>
       </c>
       <c r="AD6" t="n">
-        <v>881475.0787613938</v>
+        <v>959099.8518340411</v>
       </c>
       <c r="AE6" t="n">
-        <v>1206073.090697242</v>
+        <v>1312282.729778532</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.482773117341972e-06</v>
+        <v>2.648865963898847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.7265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1090967.16765531</v>
+        <v>1187040.307848847</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>848.7547714862418</v>
+        <v>926.3795445588892</v>
       </c>
       <c r="AB7" t="n">
-        <v>1161.3037227653</v>
+        <v>1267.513361846591</v>
       </c>
       <c r="AC7" t="n">
-        <v>1050.470525364591</v>
+        <v>1146.543665558128</v>
       </c>
       <c r="AD7" t="n">
-        <v>848754.7714862418</v>
+        <v>926379.5445588891</v>
       </c>
       <c r="AE7" t="n">
-        <v>1161303.7227653</v>
+        <v>1267513.361846591</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.495954664462751e-06</v>
+        <v>2.672413835863474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.59635416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1050470.525364591</v>
+        <v>1146543.665558128</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>850.1093045489766</v>
+        <v>927.7340776216239</v>
       </c>
       <c r="AB8" t="n">
-        <v>1163.157054659515</v>
+        <v>1269.366693740806</v>
       </c>
       <c r="AC8" t="n">
-        <v>1052.14697786399</v>
+        <v>1148.220118057526</v>
       </c>
       <c r="AD8" t="n">
-        <v>850109.3045489766</v>
+        <v>927734.0776216239</v>
       </c>
       <c r="AE8" t="n">
-        <v>1163157.054659515</v>
+        <v>1269366.693740806</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.498168359399065e-06</v>
+        <v>2.676368440315549e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.57465277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1052146.97786399</v>
+        <v>1148220.118057526</v>
       </c>
     </row>
   </sheetData>
